--- a/rs/dataset.xlsx
+++ b/rs/dataset.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91895\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Final-Year-Project\rs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5688"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2466,8 +2466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1296"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1255" workbookViewId="0">
-      <selection activeCell="B1283" sqref="B1283"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2523,7 +2523,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F2" s="4">
         <v>99</v>
@@ -2553,7 +2553,7 @@
         <v>23</v>
       </c>
       <c r="E3" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F3" s="4">
         <v>99</v>
@@ -2583,7 +2583,7 @@
         <v>25</v>
       </c>
       <c r="E4" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F4" s="4">
         <v>99</v>
@@ -2613,7 +2613,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F5" s="4">
         <v>99</v>
@@ -2643,7 +2643,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F6" s="4">
         <v>99</v>
@@ -2673,7 +2673,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F7" s="4">
         <v>99</v>
@@ -2703,7 +2703,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F8" s="4">
         <v>99</v>
@@ -2733,7 +2733,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F9" s="4">
         <v>99</v>
@@ -2763,7 +2763,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F10" s="4">
         <v>99</v>
@@ -2793,7 +2793,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F11" s="4">
         <v>99</v>
@@ -2823,7 +2823,7 @@
         <v>41</v>
       </c>
       <c r="E12" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F12" s="4">
         <v>99</v>
@@ -2853,7 +2853,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F13" s="4">
         <v>99</v>
@@ -2883,7 +2883,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F14" s="4">
         <v>99</v>
@@ -2913,7 +2913,7 @@
         <v>47</v>
       </c>
       <c r="E15" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F15" s="4">
         <v>99</v>
@@ -2943,7 +2943,7 @@
         <v>49</v>
       </c>
       <c r="E16" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F16" s="4">
         <v>98</v>
@@ -2973,7 +2973,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F17" s="4">
         <v>98</v>
@@ -3003,7 +3003,7 @@
         <v>53</v>
       </c>
       <c r="E18" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F18" s="4">
         <v>98</v>
@@ -3033,7 +3033,7 @@
         <v>7</v>
       </c>
       <c r="E19" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F19" s="4">
         <v>98</v>
@@ -3063,7 +3063,7 @@
         <v>55</v>
       </c>
       <c r="E20" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F20" s="4">
         <v>98</v>
@@ -3093,7 +3093,7 @@
         <v>57</v>
       </c>
       <c r="E21" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F21" s="4">
         <v>98</v>
@@ -3123,7 +3123,7 @@
         <v>59</v>
       </c>
       <c r="E22" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F22" s="4">
         <v>98</v>
@@ -3153,7 +3153,7 @@
         <v>61</v>
       </c>
       <c r="E23" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F23" s="4">
         <v>96</v>
@@ -3183,7 +3183,7 @@
         <v>62</v>
       </c>
       <c r="E24" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F24" s="4">
         <v>96</v>
@@ -3213,7 +3213,7 @@
         <v>65</v>
       </c>
       <c r="E25" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F25" s="4">
         <v>96</v>
@@ -3243,7 +3243,7 @@
         <v>66</v>
       </c>
       <c r="E26" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F26" s="4">
         <v>96</v>
@@ -3273,7 +3273,7 @@
         <v>67</v>
       </c>
       <c r="E27" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F27" s="4">
         <v>96</v>
@@ -3303,7 +3303,7 @@
         <v>69</v>
       </c>
       <c r="E28" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F28" s="4">
         <v>96</v>
@@ -3333,7 +3333,7 @@
         <v>70</v>
       </c>
       <c r="E29" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F29" s="4">
         <v>96</v>
@@ -3362,7 +3362,7 @@
         <v>71</v>
       </c>
       <c r="E30" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F30" s="4">
         <v>96</v>
@@ -3391,7 +3391,7 @@
         <v>72</v>
       </c>
       <c r="E31" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F31" s="4">
         <v>96</v>
@@ -3420,7 +3420,7 @@
         <v>73</v>
       </c>
       <c r="E32" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F32" s="4">
         <v>96</v>
@@ -3449,7 +3449,7 @@
         <v>75</v>
       </c>
       <c r="E33" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F33" s="4">
         <v>96</v>
@@ -3478,7 +3478,7 @@
         <v>77</v>
       </c>
       <c r="E34" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F34" s="4">
         <v>96</v>
@@ -3507,7 +3507,7 @@
         <v>80</v>
       </c>
       <c r="E35" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F35" s="4">
         <v>96</v>
@@ -3536,7 +3536,7 @@
         <v>81</v>
       </c>
       <c r="E36" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F36" s="4">
         <v>94</v>
@@ -3565,7 +3565,7 @@
         <v>66</v>
       </c>
       <c r="E37" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F37" s="4">
         <v>94</v>
@@ -3594,7 +3594,7 @@
         <v>82</v>
       </c>
       <c r="E38" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F38" s="4">
         <v>94</v>
@@ -3623,7 +3623,7 @@
         <v>83</v>
       </c>
       <c r="E39" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F39" s="4">
         <v>94</v>
@@ -3652,7 +3652,7 @@
         <v>84</v>
       </c>
       <c r="E40" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F40" s="4">
         <v>94</v>
@@ -3681,7 +3681,7 @@
         <v>85</v>
       </c>
       <c r="E41" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F41" s="4">
         <v>94</v>
@@ -3710,7 +3710,7 @@
         <v>88</v>
       </c>
       <c r="E42" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F42" s="4">
         <v>94</v>
@@ -3739,7 +3739,7 @@
         <v>90</v>
       </c>
       <c r="E43" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F43" s="4">
         <v>94</v>
@@ -3768,7 +3768,7 @@
         <v>91</v>
       </c>
       <c r="E44" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F44" s="4">
         <v>94</v>
@@ -3797,7 +3797,7 @@
         <v>92</v>
       </c>
       <c r="E45" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F45" s="4">
         <v>94</v>
@@ -3826,7 +3826,7 @@
         <v>94</v>
       </c>
       <c r="E46" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F46" s="4">
         <v>93</v>
@@ -3855,7 +3855,7 @@
         <v>35</v>
       </c>
       <c r="E47" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F47" s="4">
         <v>93</v>
@@ -3884,7 +3884,7 @@
         <v>97</v>
       </c>
       <c r="E48" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F48" s="4">
         <v>93</v>
@@ -3913,7 +3913,7 @@
         <v>98</v>
       </c>
       <c r="E49" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F49" s="4">
         <v>93</v>
@@ -3942,7 +3942,7 @@
         <v>99</v>
       </c>
       <c r="E50" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F50" s="4">
         <v>93</v>
@@ -3971,7 +3971,7 @@
         <v>102</v>
       </c>
       <c r="E51" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F51" s="4">
         <v>93</v>
@@ -4000,7 +4000,7 @@
         <v>104</v>
       </c>
       <c r="E52" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F52" s="4">
         <v>93</v>
@@ -4029,7 +4029,7 @@
         <v>105</v>
       </c>
       <c r="E53" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F53" s="4">
         <v>93</v>
@@ -4058,7 +4058,7 @@
         <v>106</v>
       </c>
       <c r="E54" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F54" s="4">
         <v>93</v>
@@ -4087,7 +4087,7 @@
         <v>66</v>
       </c>
       <c r="E55" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F55" s="4">
         <v>93</v>
@@ -4116,7 +4116,7 @@
         <v>21</v>
       </c>
       <c r="E56" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F56" s="4">
         <v>93</v>
@@ -4145,7 +4145,7 @@
         <v>109</v>
       </c>
       <c r="E57" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F57" s="4">
         <v>92</v>
@@ -4174,7 +4174,7 @@
         <v>110</v>
       </c>
       <c r="E58" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F58" s="4">
         <v>92</v>
@@ -4203,7 +4203,7 @@
         <v>111</v>
       </c>
       <c r="E59" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F59" s="4">
         <v>92</v>
@@ -4232,7 +4232,7 @@
         <v>113</v>
       </c>
       <c r="E60" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F60" s="4">
         <v>92</v>
@@ -4261,7 +4261,7 @@
         <v>115</v>
       </c>
       <c r="E61" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F61" s="4">
         <v>92</v>
@@ -4290,7 +4290,7 @@
         <v>118</v>
       </c>
       <c r="E62" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F62" s="4">
         <v>92</v>
@@ -4319,7 +4319,7 @@
         <v>61</v>
       </c>
       <c r="E63" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F63" s="4">
         <v>92</v>
@@ -4348,7 +4348,7 @@
         <v>120</v>
       </c>
       <c r="E64" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F64" s="4">
         <v>92</v>
@@ -4377,7 +4377,7 @@
         <v>121</v>
       </c>
       <c r="E65" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F65" s="4">
         <v>92</v>
@@ -4406,7 +4406,7 @@
         <v>61</v>
       </c>
       <c r="E66" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F66" s="4">
         <v>92</v>
@@ -4435,7 +4435,7 @@
         <v>123</v>
       </c>
       <c r="E67" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F67" s="4">
         <v>92</v>
@@ -4464,7 +4464,7 @@
         <v>125</v>
       </c>
       <c r="E68" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F68" s="4">
         <v>92</v>
@@ -4493,7 +4493,7 @@
         <v>126</v>
       </c>
       <c r="E69" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F69" s="4">
         <v>92</v>
@@ -4522,7 +4522,7 @@
         <v>128</v>
       </c>
       <c r="E70" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F70" s="4">
         <v>92</v>
@@ -4551,7 +4551,7 @@
         <v>129</v>
       </c>
       <c r="E71" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F71" s="4">
         <v>92</v>
@@ -4580,7 +4580,7 @@
         <v>130</v>
       </c>
       <c r="E72" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F72" s="4">
         <v>92</v>
@@ -4609,7 +4609,7 @@
         <v>131</v>
       </c>
       <c r="E73" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F73" s="4">
         <v>92</v>
@@ -4638,7 +4638,7 @@
         <v>21</v>
       </c>
       <c r="E74" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F74" s="4">
         <v>90</v>
@@ -4667,7 +4667,7 @@
         <v>133</v>
       </c>
       <c r="E75" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F75" s="4">
         <v>90</v>
@@ -4696,7 +4696,7 @@
         <v>80</v>
       </c>
       <c r="E76" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F76" s="4">
         <v>90</v>
@@ -4725,7 +4725,7 @@
         <v>134</v>
       </c>
       <c r="E77" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F77" s="4">
         <v>90</v>
@@ -5450,7 +5450,7 @@
         <v>21</v>
       </c>
       <c r="E102" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F102" s="4">
         <v>99</v>
@@ -5479,7 +5479,7 @@
         <v>4</v>
       </c>
       <c r="E103" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F103" s="4">
         <v>99</v>
@@ -5508,7 +5508,7 @@
         <v>25</v>
       </c>
       <c r="E104" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F104" s="4">
         <v>99</v>
@@ -5537,7 +5537,7 @@
         <v>27</v>
       </c>
       <c r="E105" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F105" s="4">
         <v>99</v>
@@ -5566,7 +5566,7 @@
         <v>29</v>
       </c>
       <c r="E106" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F106" s="4">
         <v>99</v>
@@ -5595,7 +5595,7 @@
         <v>31</v>
       </c>
       <c r="E107" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F107" s="4">
         <v>99</v>
@@ -5624,7 +5624,7 @@
         <v>41</v>
       </c>
       <c r="E108" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F108" s="4">
         <v>99</v>
@@ -5653,7 +5653,7 @@
         <v>21</v>
       </c>
       <c r="E109" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F109" s="4">
         <v>99</v>
@@ -5682,7 +5682,7 @@
         <v>162</v>
       </c>
       <c r="E110" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F110" s="4">
         <v>99</v>
@@ -5711,7 +5711,7 @@
         <v>33</v>
       </c>
       <c r="E111" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F111" s="4">
         <v>99</v>
@@ -5740,7 +5740,7 @@
         <v>43</v>
       </c>
       <c r="E112" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F112" s="4">
         <v>99</v>
@@ -5769,7 +5769,7 @@
         <v>55</v>
       </c>
       <c r="E113" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F113" s="4">
         <v>99</v>
@@ -5798,7 +5798,7 @@
         <v>45</v>
       </c>
       <c r="E114" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F114" s="4">
         <v>99</v>
@@ -5827,7 +5827,7 @@
         <v>4</v>
       </c>
       <c r="E115" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F115" s="4">
         <v>99</v>
@@ -5856,7 +5856,7 @@
         <v>50</v>
       </c>
       <c r="E116" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F116" s="4">
         <v>98</v>
@@ -5885,7 +5885,7 @@
         <v>164</v>
       </c>
       <c r="E117" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F117" s="4">
         <v>98</v>
@@ -5914,7 +5914,7 @@
         <v>59</v>
       </c>
       <c r="E118" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F118" s="4">
         <v>98</v>
@@ -5943,7 +5943,7 @@
         <v>69</v>
       </c>
       <c r="E119" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F119" s="4">
         <v>98</v>
@@ -5972,7 +5972,7 @@
         <v>39</v>
       </c>
       <c r="E120" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F120" s="4">
         <v>98</v>
@@ -6001,7 +6001,7 @@
         <v>166</v>
       </c>
       <c r="E121" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F121" s="4">
         <v>98</v>
@@ -6030,7 +6030,7 @@
         <v>37</v>
       </c>
       <c r="E122" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F122" s="4">
         <v>98</v>
@@ -6059,7 +6059,7 @@
         <v>167</v>
       </c>
       <c r="E123" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F123" s="4">
         <v>96</v>
@@ -6088,7 +6088,7 @@
         <v>169</v>
       </c>
       <c r="E124" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F124" s="4">
         <v>96</v>
@@ -6117,7 +6117,7 @@
         <v>8</v>
       </c>
       <c r="E125" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F125" s="4">
         <v>96</v>
@@ -6146,7 +6146,7 @@
         <v>77</v>
       </c>
       <c r="E126" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F126" s="4">
         <v>96</v>
@@ -6175,7 +6175,7 @@
         <v>171</v>
       </c>
       <c r="E127" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F127" s="4">
         <v>96</v>
@@ -6204,7 +6204,7 @@
         <v>173</v>
       </c>
       <c r="E128" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F128" s="4">
         <v>96</v>
@@ -6233,7 +6233,7 @@
         <v>175</v>
       </c>
       <c r="E129" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F129" s="4">
         <v>96</v>
@@ -6262,7 +6262,7 @@
         <v>57</v>
       </c>
       <c r="E130" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F130" s="4">
         <v>96</v>
@@ -6291,7 +6291,7 @@
         <v>35</v>
       </c>
       <c r="E131" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F131" s="4">
         <v>96</v>
@@ -6320,7 +6320,7 @@
         <v>47</v>
       </c>
       <c r="E132" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F132" s="4">
         <v>96</v>
@@ -6349,7 +6349,7 @@
         <v>177</v>
       </c>
       <c r="E133" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F133" s="4">
         <v>96</v>
@@ -6378,7 +6378,7 @@
         <v>94</v>
       </c>
       <c r="E134" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F134" s="4">
         <v>96</v>
@@ -6407,7 +6407,7 @@
         <v>71</v>
       </c>
       <c r="E135" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F135" s="4">
         <v>96</v>
@@ -6436,7 +6436,7 @@
         <v>21</v>
       </c>
       <c r="E136" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F136" s="4">
         <v>94</v>
@@ -6465,7 +6465,7 @@
         <v>4</v>
       </c>
       <c r="E137" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F137" s="4">
         <v>94</v>
@@ -6494,7 +6494,7 @@
         <v>181</v>
       </c>
       <c r="E138" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F138" s="4">
         <v>94</v>
@@ -6523,7 +6523,7 @@
         <v>182</v>
       </c>
       <c r="E139" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F139" s="4">
         <v>94</v>
@@ -6552,7 +6552,7 @@
         <v>166</v>
       </c>
       <c r="E140" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F140" s="4">
         <v>94</v>
@@ -6581,7 +6581,7 @@
         <v>185</v>
       </c>
       <c r="E141" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F141" s="4">
         <v>94</v>
@@ -6610,7 +6610,7 @@
         <v>65</v>
       </c>
       <c r="E142" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F142" s="4">
         <v>94</v>
@@ -6639,7 +6639,7 @@
         <v>7</v>
       </c>
       <c r="E143" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F143" s="4">
         <v>94</v>
@@ -6668,7 +6668,7 @@
         <v>188</v>
       </c>
       <c r="E144" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F144" s="4">
         <v>94</v>
@@ -6697,7 +6697,7 @@
         <v>83</v>
       </c>
       <c r="E145" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F145" s="4">
         <v>94</v>
@@ -6726,7 +6726,7 @@
         <v>190</v>
       </c>
       <c r="E146" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F146" s="4">
         <v>93</v>
@@ -6755,7 +6755,7 @@
         <v>192</v>
       </c>
       <c r="E147" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F147" s="4">
         <v>93</v>
@@ -6784,7 +6784,7 @@
         <v>194</v>
       </c>
       <c r="E148" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F148" s="4">
         <v>93</v>
@@ -6813,7 +6813,7 @@
         <v>196</v>
       </c>
       <c r="E149" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F149" s="4">
         <v>93</v>
@@ -6842,7 +6842,7 @@
         <v>190</v>
       </c>
       <c r="E150" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F150" s="4">
         <v>93</v>
@@ -6871,7 +6871,7 @@
         <v>49</v>
       </c>
       <c r="E151" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F151" s="4">
         <v>93</v>
@@ -6900,7 +6900,7 @@
         <v>94</v>
       </c>
       <c r="E152" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F152" s="4">
         <v>93</v>
@@ -6929,7 +6929,7 @@
         <v>190</v>
       </c>
       <c r="E153" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F153" s="4">
         <v>93</v>
@@ -6958,7 +6958,7 @@
         <v>123</v>
       </c>
       <c r="E154" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F154" s="4">
         <v>93</v>
@@ -6987,7 +6987,7 @@
         <v>118</v>
       </c>
       <c r="E155" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F155" s="4">
         <v>93</v>
@@ -7016,7 +7016,7 @@
         <v>73</v>
       </c>
       <c r="E156" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F156" s="4">
         <v>93</v>
@@ -7045,7 +7045,7 @@
         <v>166</v>
       </c>
       <c r="E157" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F157" s="4">
         <v>92</v>
@@ -7074,7 +7074,7 @@
         <v>202</v>
       </c>
       <c r="E158" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F158" s="4">
         <v>92</v>
@@ -7103,7 +7103,7 @@
         <v>21</v>
       </c>
       <c r="E159" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F159" s="4">
         <v>92</v>
@@ -7132,7 +7132,7 @@
         <v>105</v>
       </c>
       <c r="E160" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F160" s="4">
         <v>92</v>
@@ -7161,7 +7161,7 @@
         <v>204</v>
       </c>
       <c r="E161" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F161" s="4">
         <v>92</v>
@@ -7190,7 +7190,7 @@
         <v>206</v>
       </c>
       <c r="E162" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F162" s="4">
         <v>92</v>
@@ -7219,7 +7219,7 @@
         <v>94</v>
       </c>
       <c r="E163" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F163" s="4">
         <v>92</v>
@@ -7248,7 +7248,7 @@
         <v>33</v>
       </c>
       <c r="E164" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F164" s="4">
         <v>92</v>
@@ -7277,7 +7277,7 @@
         <v>208</v>
       </c>
       <c r="E165" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F165" s="4">
         <v>92</v>
@@ -7306,7 +7306,7 @@
         <v>67</v>
       </c>
       <c r="E166" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F166" s="4">
         <v>92</v>
@@ -7335,7 +7335,7 @@
         <v>8</v>
       </c>
       <c r="E167" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F167" s="4">
         <v>92</v>
@@ -7364,7 +7364,7 @@
         <v>7</v>
       </c>
       <c r="E168" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F168" s="4">
         <v>92</v>
@@ -7393,7 +7393,7 @@
         <v>210</v>
       </c>
       <c r="E169" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F169" s="4">
         <v>92</v>
@@ -7422,7 +7422,7 @@
         <v>137</v>
       </c>
       <c r="E170" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F170" s="4">
         <v>92</v>
@@ -7451,7 +7451,7 @@
         <v>84</v>
       </c>
       <c r="E171" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F171" s="4">
         <v>92</v>
@@ -7480,7 +7480,7 @@
         <v>212</v>
       </c>
       <c r="E172" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F172" s="4">
         <v>92</v>
@@ -7509,7 +7509,7 @@
         <v>214</v>
       </c>
       <c r="E173" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F173" s="4">
         <v>92</v>
@@ -7538,7 +7538,7 @@
         <v>216</v>
       </c>
       <c r="E174" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F174" s="4">
         <v>90</v>
@@ -7567,7 +7567,7 @@
         <v>218</v>
       </c>
       <c r="E175" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F175" s="4">
         <v>90</v>
@@ -7596,7 +7596,7 @@
         <v>33</v>
       </c>
       <c r="E176" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F176" s="4">
         <v>90</v>
@@ -8350,7 +8350,7 @@
         <v>21</v>
       </c>
       <c r="E202" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F202" s="4">
         <v>99</v>
@@ -8379,7 +8379,7 @@
         <v>4</v>
       </c>
       <c r="E203" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F203" s="4">
         <v>99</v>
@@ -8408,7 +8408,7 @@
         <v>166</v>
       </c>
       <c r="E204" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F204" s="4">
         <v>99</v>
@@ -8437,7 +8437,7 @@
         <v>25</v>
       </c>
       <c r="E205" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F205" s="4">
         <v>99</v>
@@ -8466,7 +8466,7 @@
         <v>29</v>
       </c>
       <c r="E206" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F206" s="4">
         <v>99</v>
@@ -8495,7 +8495,7 @@
         <v>31</v>
       </c>
       <c r="E207" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F207" s="4">
         <v>99</v>
@@ -8524,7 +8524,7 @@
         <v>41</v>
       </c>
       <c r="E208" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F208" s="4">
         <v>99</v>
@@ -8553,7 +8553,7 @@
         <v>21</v>
       </c>
       <c r="E209" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F209" s="4">
         <v>99</v>
@@ -8582,7 +8582,7 @@
         <v>33</v>
       </c>
       <c r="E210" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F210" s="4">
         <v>99</v>
@@ -8611,7 +8611,7 @@
         <v>4</v>
       </c>
       <c r="E211" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F211" s="4">
         <v>99</v>
@@ -8640,7 +8640,7 @@
         <v>43</v>
       </c>
       <c r="E212" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F212" s="4">
         <v>99</v>
@@ -8669,7 +8669,7 @@
         <v>162</v>
       </c>
       <c r="E213" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F213" s="4">
         <v>99</v>
@@ -8698,7 +8698,7 @@
         <v>169</v>
       </c>
       <c r="E214" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F214" s="4">
         <v>99</v>
@@ -8727,7 +8727,7 @@
         <v>50</v>
       </c>
       <c r="E215" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F215" s="4">
         <v>99</v>
@@ -8756,7 +8756,7 @@
         <v>55</v>
       </c>
       <c r="E216" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F216" s="4">
         <v>98</v>
@@ -8785,7 +8785,7 @@
         <v>45</v>
       </c>
       <c r="E217" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F217" s="4">
         <v>98</v>
@@ -8814,7 +8814,7 @@
         <v>164</v>
       </c>
       <c r="E218" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F218" s="4">
         <v>98</v>
@@ -8843,7 +8843,7 @@
         <v>69</v>
       </c>
       <c r="E219" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F219" s="4">
         <v>98</v>
@@ -8872,7 +8872,7 @@
         <v>47</v>
       </c>
       <c r="E220" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F220" s="4">
         <v>98</v>
@@ -8901,7 +8901,7 @@
         <v>171</v>
       </c>
       <c r="E221" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F221" s="4">
         <v>98</v>
@@ -8930,7 +8930,7 @@
         <v>167</v>
       </c>
       <c r="E222" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F222" s="4">
         <v>98</v>
@@ -8959,7 +8959,7 @@
         <v>59</v>
       </c>
       <c r="E223" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F223" s="4">
         <v>96</v>
@@ -8988,7 +8988,7 @@
         <v>37</v>
       </c>
       <c r="E224" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F224" s="4">
         <v>96</v>
@@ -9017,7 +9017,7 @@
         <v>175</v>
       </c>
       <c r="E225" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F225" s="4">
         <v>96</v>
@@ -9046,7 +9046,7 @@
         <v>39</v>
       </c>
       <c r="E226" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F226" s="4">
         <v>96</v>
@@ -9075,7 +9075,7 @@
         <v>71</v>
       </c>
       <c r="E227" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F227" s="4">
         <v>96</v>
@@ -9104,7 +9104,7 @@
         <v>177</v>
       </c>
       <c r="E228" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F228" s="4">
         <v>96</v>
@@ -9133,7 +9133,7 @@
         <v>57</v>
       </c>
       <c r="E229" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F229" s="4">
         <v>96</v>
@@ -9162,7 +9162,7 @@
         <v>212</v>
       </c>
       <c r="E230" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F230" s="4">
         <v>96</v>
@@ -9191,7 +9191,7 @@
         <v>94</v>
       </c>
       <c r="E231" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F231" s="4">
         <v>96</v>
@@ -9220,7 +9220,7 @@
         <v>7</v>
       </c>
       <c r="E232" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F232" s="4">
         <v>96</v>
@@ -9249,7 +9249,7 @@
         <v>166</v>
       </c>
       <c r="E233" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F233" s="4">
         <v>96</v>
@@ -9278,7 +9278,7 @@
         <v>77</v>
       </c>
       <c r="E234" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F234" s="4">
         <v>96</v>
@@ -9307,7 +9307,7 @@
         <v>192</v>
       </c>
       <c r="E235" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F235" s="4">
         <v>96</v>
@@ -9336,7 +9336,7 @@
         <v>185</v>
       </c>
       <c r="E236" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F236" s="4">
         <v>94</v>
@@ -9365,7 +9365,7 @@
         <v>257</v>
       </c>
       <c r="E237" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F237" s="4">
         <v>94</v>
@@ -9394,7 +9394,7 @@
         <v>21</v>
       </c>
       <c r="E238" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F238" s="4">
         <v>94</v>
@@ -9423,7 +9423,7 @@
         <v>33</v>
       </c>
       <c r="E239" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F239" s="4">
         <v>94</v>
@@ -9452,7 +9452,7 @@
         <v>188</v>
       </c>
       <c r="E240" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F240" s="4">
         <v>94</v>
@@ -9481,7 +9481,7 @@
         <v>181</v>
       </c>
       <c r="E241" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F241" s="4">
         <v>94</v>
@@ -9510,7 +9510,7 @@
         <v>166</v>
       </c>
       <c r="E242" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F242" s="4">
         <v>94</v>
@@ -9539,7 +9539,7 @@
         <v>33</v>
       </c>
       <c r="E243" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F243" s="4">
         <v>94</v>
@@ -9568,7 +9568,7 @@
         <v>204</v>
       </c>
       <c r="E244" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F244" s="4">
         <v>94</v>
@@ -9597,7 +9597,7 @@
         <v>4</v>
       </c>
       <c r="E245" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F245" s="4">
         <v>94</v>
@@ -9626,7 +9626,7 @@
         <v>8</v>
       </c>
       <c r="E246" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F246" s="4">
         <v>93</v>
@@ -9655,7 +9655,7 @@
         <v>21</v>
       </c>
       <c r="E247" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F247" s="4">
         <v>93</v>
@@ -9684,7 +9684,7 @@
         <v>73</v>
       </c>
       <c r="E248" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F248" s="4">
         <v>93</v>
@@ -9713,7 +9713,7 @@
         <v>65</v>
       </c>
       <c r="E249" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F249" s="4">
         <v>93</v>
@@ -9742,7 +9742,7 @@
         <v>210</v>
       </c>
       <c r="E250" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F250" s="4">
         <v>93</v>
@@ -9771,7 +9771,7 @@
         <v>263</v>
       </c>
       <c r="E251" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F251" s="4">
         <v>93</v>
@@ -9800,7 +9800,7 @@
         <v>69</v>
       </c>
       <c r="E252" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F252" s="4">
         <v>93</v>
@@ -9829,7 +9829,7 @@
         <v>84</v>
       </c>
       <c r="E253" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F253" s="4">
         <v>93</v>
@@ -9858,7 +9858,7 @@
         <v>182</v>
       </c>
       <c r="E254" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F254" s="4">
         <v>93</v>
@@ -9887,7 +9887,7 @@
         <v>67</v>
       </c>
       <c r="E255" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F255" s="4">
         <v>93</v>
@@ -9916,7 +9916,7 @@
         <v>206</v>
       </c>
       <c r="E256" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F256" s="4">
         <v>93</v>
@@ -9945,7 +9945,7 @@
         <v>265</v>
       </c>
       <c r="E257" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F257" s="4">
         <v>92</v>
@@ -9974,7 +9974,7 @@
         <v>123</v>
       </c>
       <c r="E258" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F258" s="4">
         <v>92</v>
@@ -10003,7 +10003,7 @@
         <v>190</v>
       </c>
       <c r="E259" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F259" s="4">
         <v>92</v>
@@ -10032,7 +10032,7 @@
         <v>86</v>
       </c>
       <c r="E260" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F260" s="4">
         <v>92</v>
@@ -10061,7 +10061,7 @@
         <v>190</v>
       </c>
       <c r="E261" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F261" s="4">
         <v>92</v>
@@ -10090,7 +10090,7 @@
         <v>49</v>
       </c>
       <c r="E262" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F262" s="4">
         <v>92</v>
@@ -10119,7 +10119,7 @@
         <v>94</v>
       </c>
       <c r="E263" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F263" s="4">
         <v>92</v>
@@ -10148,7 +10148,7 @@
         <v>8</v>
       </c>
       <c r="E264" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F264" s="4">
         <v>92</v>
@@ -10177,7 +10177,7 @@
         <v>268</v>
       </c>
       <c r="E265" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F265" s="4">
         <v>92</v>
@@ -10206,7 +10206,7 @@
         <v>245</v>
       </c>
       <c r="E266" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F266" s="4">
         <v>92</v>
@@ -10235,7 +10235,7 @@
         <v>166</v>
       </c>
       <c r="E267" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F267" s="4">
         <v>92</v>
@@ -10264,7 +10264,7 @@
         <v>190</v>
       </c>
       <c r="E268" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F268" s="4">
         <v>92</v>
@@ -10293,7 +10293,7 @@
         <v>202</v>
       </c>
       <c r="E269" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F269" s="4">
         <v>92</v>
@@ -10322,7 +10322,7 @@
         <v>273</v>
       </c>
       <c r="E270" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F270" s="4">
         <v>92</v>
@@ -10351,7 +10351,7 @@
         <v>118</v>
       </c>
       <c r="E271" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F271" s="4">
         <v>92</v>
@@ -10380,7 +10380,7 @@
         <v>196</v>
       </c>
       <c r="E272" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F272" s="4">
         <v>92</v>
@@ -10409,7 +10409,7 @@
         <v>94</v>
       </c>
       <c r="E273" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F273" s="4">
         <v>92</v>
@@ -10438,7 +10438,7 @@
         <v>86</v>
       </c>
       <c r="E274" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F274" s="4">
         <v>90</v>
@@ -10467,7 +10467,7 @@
         <v>91</v>
       </c>
       <c r="E275" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F275" s="4">
         <v>90</v>
@@ -10496,7 +10496,7 @@
         <v>175</v>
       </c>
       <c r="E276" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F276" s="4">
         <v>90</v>
@@ -11250,7 +11250,7 @@
         <v>21</v>
       </c>
       <c r="E302" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F302" s="4">
         <v>99</v>
@@ -11279,7 +11279,7 @@
         <v>166</v>
       </c>
       <c r="E303" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F303" s="4">
         <v>99</v>
@@ -11308,7 +11308,7 @@
         <v>4</v>
       </c>
       <c r="E304" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F304" s="4">
         <v>99</v>
@@ -11337,7 +11337,7 @@
         <v>25</v>
       </c>
       <c r="E305" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F305" s="4">
         <v>99</v>
@@ -11366,7 +11366,7 @@
         <v>29</v>
       </c>
       <c r="E306" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F306" s="4">
         <v>99</v>
@@ -11395,7 +11395,7 @@
         <v>31</v>
       </c>
       <c r="E307" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F307" s="4">
         <v>99</v>
@@ -11424,7 +11424,7 @@
         <v>41</v>
       </c>
       <c r="E308" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F308" s="4">
         <v>99</v>
@@ -11453,7 +11453,7 @@
         <v>33</v>
       </c>
       <c r="E309" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F309" s="4">
         <v>99</v>
@@ -11482,7 +11482,7 @@
         <v>21</v>
       </c>
       <c r="E310" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F310" s="4">
         <v>99</v>
@@ -11511,7 +11511,7 @@
         <v>43</v>
       </c>
       <c r="E311" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F311" s="4">
         <v>99</v>
@@ -11540,7 +11540,7 @@
         <v>47</v>
       </c>
       <c r="E312" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F312" s="4">
         <v>99</v>
@@ -11569,7 +11569,7 @@
         <v>4</v>
       </c>
       <c r="E313" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F313" s="4">
         <v>99</v>
@@ -11598,7 +11598,7 @@
         <v>50</v>
       </c>
       <c r="E314" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F314" s="4">
         <v>99</v>
@@ -11627,7 +11627,7 @@
         <v>162</v>
       </c>
       <c r="E315" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F315" s="4">
         <v>99</v>
@@ -11656,7 +11656,7 @@
         <v>169</v>
       </c>
       <c r="E316" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F316" s="4">
         <v>99</v>
@@ -11685,7 +11685,7 @@
         <v>55</v>
       </c>
       <c r="E317" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F317" s="4">
         <v>99</v>
@@ -11714,7 +11714,7 @@
         <v>69</v>
       </c>
       <c r="E318" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F318" s="4">
         <v>99</v>
@@ -11743,7 +11743,7 @@
         <v>45</v>
       </c>
       <c r="E319" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F319" s="4">
         <v>99</v>
@@ -11772,7 +11772,7 @@
         <v>295</v>
       </c>
       <c r="E320" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F320" s="4">
         <v>99</v>
@@ -11801,7 +11801,7 @@
         <v>57</v>
       </c>
       <c r="E321" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F321" s="4">
         <v>99</v>
@@ -11830,7 +11830,7 @@
         <v>167</v>
       </c>
       <c r="E322" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F322" s="4">
         <v>98</v>
@@ -11859,7 +11859,7 @@
         <v>39</v>
       </c>
       <c r="E323" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F323" s="4">
         <v>98</v>
@@ -11888,7 +11888,7 @@
         <v>171</v>
       </c>
       <c r="E324" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F324" s="4">
         <v>98</v>
@@ -11917,7 +11917,7 @@
         <v>212</v>
       </c>
       <c r="E325" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F325" s="4">
         <v>98</v>
@@ -11946,7 +11946,7 @@
         <v>164</v>
       </c>
       <c r="E326" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F326" s="4">
         <v>98</v>
@@ -11975,7 +11975,7 @@
         <v>71</v>
       </c>
       <c r="E327" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F327" s="4">
         <v>98</v>
@@ -12004,7 +12004,7 @@
         <v>166</v>
       </c>
       <c r="E328" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F328" s="4">
         <v>98</v>
@@ -12033,7 +12033,7 @@
         <v>297</v>
       </c>
       <c r="E329" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F329" s="4">
         <v>98</v>
@@ -12062,7 +12062,7 @@
         <v>37</v>
       </c>
       <c r="E330" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F330" s="4">
         <v>98</v>
@@ -12091,7 +12091,7 @@
         <v>175</v>
       </c>
       <c r="E331" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F331" s="4">
         <v>98</v>
@@ -12120,7 +12120,7 @@
         <v>7</v>
       </c>
       <c r="E332" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F332" s="4">
         <v>98</v>
@@ -12149,7 +12149,7 @@
         <v>69</v>
       </c>
       <c r="E333" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F333" s="4">
         <v>98</v>
@@ -12178,7 +12178,7 @@
         <v>177</v>
       </c>
       <c r="E334" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F334" s="4">
         <v>98</v>
@@ -12207,7 +12207,7 @@
         <v>166</v>
       </c>
       <c r="E335" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F335" s="4">
         <v>96</v>
@@ -12236,7 +12236,7 @@
         <v>192</v>
       </c>
       <c r="E336" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F336" s="4">
         <v>96</v>
@@ -12265,7 +12265,7 @@
         <v>21</v>
       </c>
       <c r="E337" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F337" s="4">
         <v>96</v>
@@ -12294,7 +12294,7 @@
         <v>257</v>
       </c>
       <c r="E338" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F338" s="4">
         <v>96</v>
@@ -12323,7 +12323,7 @@
         <v>77</v>
       </c>
       <c r="E339" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F339" s="4">
         <v>96</v>
@@ -12352,7 +12352,7 @@
         <v>33</v>
       </c>
       <c r="E340" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F340" s="4">
         <v>96</v>
@@ -12381,7 +12381,7 @@
         <v>185</v>
       </c>
       <c r="E341" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F341" s="4">
         <v>96</v>
@@ -12410,7 +12410,7 @@
         <v>204</v>
       </c>
       <c r="E342" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F342" s="4">
         <v>96</v>
@@ -12439,7 +12439,7 @@
         <v>65</v>
       </c>
       <c r="E343" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F343" s="4">
         <v>96</v>
@@ -12468,7 +12468,7 @@
         <v>188</v>
       </c>
       <c r="E344" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F344" s="4">
         <v>96</v>
@@ -12497,7 +12497,7 @@
         <v>94</v>
       </c>
       <c r="E345" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F345" s="4">
         <v>96</v>
@@ -12526,7 +12526,7 @@
         <v>33</v>
       </c>
       <c r="E346" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F346" s="4">
         <v>95</v>
@@ -12555,7 +12555,7 @@
         <v>73</v>
       </c>
       <c r="E347" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F347" s="4">
         <v>95</v>
@@ -12584,7 +12584,7 @@
         <v>21</v>
       </c>
       <c r="E348" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F348" s="4">
         <v>95</v>
@@ -12613,7 +12613,7 @@
         <v>69</v>
       </c>
       <c r="E349" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F349" s="4">
         <v>95</v>
@@ -12642,7 +12642,7 @@
         <v>8</v>
       </c>
       <c r="E350" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F350" s="4">
         <v>95</v>
@@ -12671,7 +12671,7 @@
         <v>67</v>
       </c>
       <c r="E351" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F351" s="4">
         <v>95</v>
@@ -12700,7 +12700,7 @@
         <v>123</v>
       </c>
       <c r="E352" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F352" s="4">
         <v>95</v>
@@ -12729,7 +12729,7 @@
         <v>210</v>
       </c>
       <c r="E353" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F353" s="4">
         <v>95</v>
@@ -12758,7 +12758,7 @@
         <v>84</v>
       </c>
       <c r="E354" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F354" s="4">
         <v>95</v>
@@ -12787,7 +12787,7 @@
         <v>86</v>
       </c>
       <c r="E355" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F355" s="4">
         <v>95</v>
@@ -12816,7 +12816,7 @@
         <v>166</v>
       </c>
       <c r="E356" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F356" s="4">
         <v>95</v>
@@ -12845,7 +12845,7 @@
         <v>181</v>
       </c>
       <c r="E357" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F357" s="4">
         <v>95</v>
@@ -12874,7 +12874,7 @@
         <v>8</v>
       </c>
       <c r="E358" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F358" s="4">
         <v>95</v>
@@ -12903,7 +12903,7 @@
         <v>49</v>
       </c>
       <c r="E359" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F359" s="4">
         <v>95</v>
@@ -12932,7 +12932,7 @@
         <v>245</v>
       </c>
       <c r="E360" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F360" s="4">
         <v>95</v>
@@ -12961,7 +12961,7 @@
         <v>268</v>
       </c>
       <c r="E361" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F361" s="4">
         <v>95</v>
@@ -12990,7 +12990,7 @@
         <v>289</v>
       </c>
       <c r="E362" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F362" s="4">
         <v>95</v>
@@ -13019,7 +13019,7 @@
         <v>206</v>
       </c>
       <c r="E363" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F363" s="4">
         <v>95</v>
@@ -13048,7 +13048,7 @@
         <v>190</v>
       </c>
       <c r="E364" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F364" s="4">
         <v>95</v>
@@ -13077,7 +13077,7 @@
         <v>190</v>
       </c>
       <c r="E365" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F365" s="4">
         <v>95</v>
@@ -13106,7 +13106,7 @@
         <v>190</v>
       </c>
       <c r="E366" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F366" s="4">
         <v>95</v>
@@ -13135,7 +13135,7 @@
         <v>4</v>
       </c>
       <c r="E367" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F367" s="4">
         <v>95</v>
@@ -13164,7 +13164,7 @@
         <v>111</v>
       </c>
       <c r="E368" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F368" s="4">
         <v>95</v>
@@ -13193,7 +13193,7 @@
         <v>94</v>
       </c>
       <c r="E369" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F369" s="4">
         <v>93</v>
@@ -13222,7 +13222,7 @@
         <v>190</v>
       </c>
       <c r="E370" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F370" s="4">
         <v>93</v>
@@ -13251,7 +13251,7 @@
         <v>284</v>
       </c>
       <c r="E371" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F371" s="4">
         <v>93</v>
@@ -13280,7 +13280,7 @@
         <v>175</v>
       </c>
       <c r="E372" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F372" s="4">
         <v>93</v>
@@ -13309,7 +13309,7 @@
         <v>94</v>
       </c>
       <c r="E373" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F373" s="4">
         <v>93</v>
@@ -13338,7 +13338,7 @@
         <v>166</v>
       </c>
       <c r="E374" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F374" s="4">
         <v>93</v>
@@ -13367,7 +13367,7 @@
         <v>281</v>
       </c>
       <c r="E375" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F375" s="4">
         <v>93</v>
@@ -13396,7 +13396,7 @@
         <v>137</v>
       </c>
       <c r="E376" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F376" s="4">
         <v>93</v>
@@ -13425,7 +13425,7 @@
         <v>182</v>
       </c>
       <c r="E377" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F377" s="4">
         <v>93</v>
@@ -13454,7 +13454,7 @@
         <v>94</v>
       </c>
       <c r="E378" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F378" s="4">
         <v>93</v>
@@ -13483,7 +13483,7 @@
         <v>86</v>
       </c>
       <c r="E379" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F379" s="4">
         <v>93</v>
@@ -13512,7 +13512,7 @@
         <v>214</v>
       </c>
       <c r="E380" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F380" s="4">
         <v>93</v>
@@ -13541,7 +13541,7 @@
         <v>118</v>
       </c>
       <c r="E381" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F381" s="4">
         <v>93</v>
@@ -13570,7 +13570,7 @@
         <v>302</v>
       </c>
       <c r="E382" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F382" s="4">
         <v>93</v>
@@ -13599,7 +13599,7 @@
         <v>65</v>
       </c>
       <c r="E383" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F383" s="4">
         <v>93</v>
@@ -13628,7 +13628,7 @@
         <v>33</v>
       </c>
       <c r="E384" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F384" s="4">
         <v>93</v>
@@ -13657,7 +13657,7 @@
         <v>273</v>
       </c>
       <c r="E385" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F385" s="4">
         <v>93</v>
@@ -13686,7 +13686,7 @@
         <v>287</v>
       </c>
       <c r="E386" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F386" s="4">
         <v>93</v>
@@ -13715,7 +13715,7 @@
         <v>21</v>
       </c>
       <c r="E387" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F387" s="4">
         <v>93</v>
@@ -13744,7 +13744,7 @@
         <v>135</v>
       </c>
       <c r="E388" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F388" s="4">
         <v>93</v>
@@ -13773,7 +13773,7 @@
         <v>216</v>
       </c>
       <c r="E389" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F389" s="4">
         <v>93</v>
@@ -13802,7 +13802,7 @@
         <v>196</v>
       </c>
       <c r="E390" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F390" s="4">
         <v>93</v>
@@ -13831,7 +13831,7 @@
         <v>94</v>
       </c>
       <c r="E391" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F391" s="4">
         <v>93</v>
@@ -13860,7 +13860,7 @@
         <v>8</v>
       </c>
       <c r="E392" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F392" s="4">
         <v>93</v>
@@ -14121,7 +14121,7 @@
         <v>33</v>
       </c>
       <c r="E401" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F401" s="4">
         <v>92</v>
@@ -14150,7 +14150,7 @@
         <v>308</v>
       </c>
       <c r="E402" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F402" s="4">
         <v>92</v>
@@ -14179,7 +14179,7 @@
         <v>162</v>
       </c>
       <c r="E403" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F403" s="4">
         <v>92</v>
@@ -14208,7 +14208,7 @@
         <v>291</v>
       </c>
       <c r="E404" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F404" s="4">
         <v>92</v>
@@ -14237,7 +14237,7 @@
         <v>311</v>
       </c>
       <c r="E405" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F405" s="4">
         <v>92</v>
@@ -14266,7 +14266,7 @@
         <v>4</v>
       </c>
       <c r="E406" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F406" s="4">
         <v>92</v>
@@ -14295,7 +14295,7 @@
         <v>190</v>
       </c>
       <c r="E407" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F407" s="4">
         <v>92</v>
@@ -14324,7 +14324,7 @@
         <v>115</v>
       </c>
       <c r="E408" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F408" s="4">
         <v>92</v>
@@ -14353,7 +14353,7 @@
         <v>21</v>
       </c>
       <c r="E409" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F409" s="4">
         <v>92</v>
@@ -17050,7 +17050,7 @@
         <v>21</v>
       </c>
       <c r="E502" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F502" s="4">
         <v>99</v>
@@ -17079,7 +17079,7 @@
         <v>166</v>
       </c>
       <c r="E503" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F503" s="4">
         <v>99</v>
@@ -17108,7 +17108,7 @@
         <v>4</v>
       </c>
       <c r="E504" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F504" s="4">
         <v>99</v>
@@ -17137,7 +17137,7 @@
         <v>29</v>
       </c>
       <c r="E505" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F505" s="4">
         <v>99</v>
@@ -17166,7 +17166,7 @@
         <v>25</v>
       </c>
       <c r="E506" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F506" s="4">
         <v>99</v>
@@ -17195,7 +17195,7 @@
         <v>31</v>
       </c>
       <c r="E507" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F507" s="4">
         <v>99</v>
@@ -17224,7 +17224,7 @@
         <v>41</v>
       </c>
       <c r="E508" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F508" s="4">
         <v>99</v>
@@ -17253,7 +17253,7 @@
         <v>33</v>
       </c>
       <c r="E509" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F509" s="4">
         <v>99</v>
@@ -17282,7 +17282,7 @@
         <v>43</v>
       </c>
       <c r="E510" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F510" s="4">
         <v>99</v>
@@ -17311,7 +17311,7 @@
         <v>50</v>
       </c>
       <c r="E511" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F511" s="4">
         <v>99</v>
@@ -17340,7 +17340,7 @@
         <v>47</v>
       </c>
       <c r="E512" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F512" s="4">
         <v>99</v>
@@ -17369,7 +17369,7 @@
         <v>169</v>
       </c>
       <c r="E513" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F513" s="4">
         <v>99</v>
@@ -17398,7 +17398,7 @@
         <v>167</v>
       </c>
       <c r="E514" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F514" s="4">
         <v>99</v>
@@ -17427,7 +17427,7 @@
         <v>21</v>
       </c>
       <c r="E515" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F515" s="4">
         <v>99</v>
@@ -17456,7 +17456,7 @@
         <v>45</v>
       </c>
       <c r="E516" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F516" s="4">
         <v>99</v>
@@ -17485,7 +17485,7 @@
         <v>55</v>
       </c>
       <c r="E517" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F517" s="4">
         <v>99</v>
@@ -17514,7 +17514,7 @@
         <v>162</v>
       </c>
       <c r="E518" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F518" s="4">
         <v>99</v>
@@ -17543,7 +17543,7 @@
         <v>4</v>
       </c>
       <c r="E519" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F519" s="4">
         <v>99</v>
@@ -17572,7 +17572,7 @@
         <v>71</v>
       </c>
       <c r="E520" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F520" s="4">
         <v>99</v>
@@ -17601,7 +17601,7 @@
         <v>419</v>
       </c>
       <c r="E521" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F521" s="4">
         <v>99</v>
@@ -17630,7 +17630,7 @@
         <v>295</v>
       </c>
       <c r="E522" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F522" s="4">
         <v>98</v>
@@ -17659,7 +17659,7 @@
         <v>69</v>
       </c>
       <c r="E523" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F523" s="4">
         <v>98</v>
@@ -17688,7 +17688,7 @@
         <v>297</v>
       </c>
       <c r="E524" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F524" s="4">
         <v>98</v>
@@ -17717,7 +17717,7 @@
         <v>212</v>
       </c>
       <c r="E525" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F525" s="4">
         <v>98</v>
@@ -17746,7 +17746,7 @@
         <v>37</v>
       </c>
       <c r="E526" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F526" s="4">
         <v>98</v>
@@ -17775,7 +17775,7 @@
         <v>39</v>
       </c>
       <c r="E527" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F527" s="4">
         <v>98</v>
@@ -17804,7 +17804,7 @@
         <v>7</v>
       </c>
       <c r="E528" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F528" s="4">
         <v>98</v>
@@ -17833,7 +17833,7 @@
         <v>166</v>
       </c>
       <c r="E529" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F529" s="4">
         <v>98</v>
@@ -17862,7 +17862,7 @@
         <v>171</v>
       </c>
       <c r="E530" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F530" s="4">
         <v>98</v>
@@ -17891,7 +17891,7 @@
         <v>164</v>
       </c>
       <c r="E531" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F531" s="4">
         <v>98</v>
@@ -17920,7 +17920,7 @@
         <v>57</v>
       </c>
       <c r="E532" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F532" s="4">
         <v>98</v>
@@ -17949,7 +17949,7 @@
         <v>192</v>
       </c>
       <c r="E533" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F533" s="4">
         <v>98</v>
@@ -17978,7 +17978,7 @@
         <v>175</v>
       </c>
       <c r="E534" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F534" s="4">
         <v>98</v>
@@ -18007,7 +18007,7 @@
         <v>69</v>
       </c>
       <c r="E535" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F535" s="4">
         <v>96</v>
@@ -18036,7 +18036,7 @@
         <v>84</v>
       </c>
       <c r="E536" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F536" s="4">
         <v>96</v>
@@ -18065,7 +18065,7 @@
         <v>166</v>
       </c>
       <c r="E537" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F537" s="4">
         <v>96</v>
@@ -18094,7 +18094,7 @@
         <v>77</v>
       </c>
       <c r="E538" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F538" s="4">
         <v>96</v>
@@ -18123,7 +18123,7 @@
         <v>177</v>
       </c>
       <c r="E539" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F539" s="4">
         <v>96</v>
@@ -18152,7 +18152,7 @@
         <v>185</v>
       </c>
       <c r="E540" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F540" s="4">
         <v>96</v>
@@ -18181,7 +18181,7 @@
         <v>204</v>
       </c>
       <c r="E541" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F541" s="4">
         <v>96</v>
@@ -18210,7 +18210,7 @@
         <v>21</v>
       </c>
       <c r="E542" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F542" s="4">
         <v>96</v>
@@ -18239,7 +18239,7 @@
         <v>69</v>
       </c>
       <c r="E543" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F543" s="4">
         <v>96</v>
@@ -18268,7 +18268,7 @@
         <v>33</v>
       </c>
       <c r="E544" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F544" s="4">
         <v>96</v>
@@ -18297,7 +18297,7 @@
         <v>257</v>
       </c>
       <c r="E545" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F545" s="4">
         <v>96</v>
@@ -18326,7 +18326,7 @@
         <v>188</v>
       </c>
       <c r="E546" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F546" s="4">
         <v>95</v>
@@ -18355,7 +18355,7 @@
         <v>123</v>
       </c>
       <c r="E547" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F547" s="4">
         <v>95</v>
@@ -18384,7 +18384,7 @@
         <v>73</v>
       </c>
       <c r="E548" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F548" s="4">
         <v>95</v>
@@ -18413,7 +18413,7 @@
         <v>65</v>
       </c>
       <c r="E549" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F549" s="4">
         <v>95</v>
@@ -18442,7 +18442,7 @@
         <v>94</v>
       </c>
       <c r="E550" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F550" s="4">
         <v>95</v>
@@ -18471,7 +18471,7 @@
         <v>8</v>
       </c>
       <c r="E551" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F551" s="4">
         <v>95</v>
@@ -18500,7 +18500,7 @@
         <v>21</v>
       </c>
       <c r="E552" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F552" s="4">
         <v>95</v>
@@ -18529,7 +18529,7 @@
         <v>91</v>
       </c>
       <c r="E553" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F553" s="4">
         <v>95</v>
@@ -18558,7 +18558,7 @@
         <v>67</v>
       </c>
       <c r="E554" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F554" s="4">
         <v>95</v>
@@ -18587,7 +18587,7 @@
         <v>49</v>
       </c>
       <c r="E555" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F555" s="4">
         <v>95</v>
@@ -18616,7 +18616,7 @@
         <v>423</v>
       </c>
       <c r="E556" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F556" s="4">
         <v>95</v>
@@ -18645,7 +18645,7 @@
         <v>166</v>
       </c>
       <c r="E557" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F557" s="4">
         <v>95</v>
@@ -18674,7 +18674,7 @@
         <v>33</v>
       </c>
       <c r="E558" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F558" s="4">
         <v>95</v>
@@ -18703,7 +18703,7 @@
         <v>210</v>
       </c>
       <c r="E559" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F559" s="4">
         <v>95</v>
@@ -18732,7 +18732,7 @@
         <v>190</v>
       </c>
       <c r="E560" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F560" s="4">
         <v>95</v>
@@ -18761,7 +18761,7 @@
         <v>289</v>
       </c>
       <c r="E561" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F561" s="4">
         <v>95</v>
@@ -18790,7 +18790,7 @@
         <v>111</v>
       </c>
       <c r="E562" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F562" s="4">
         <v>95</v>
@@ -18819,7 +18819,7 @@
         <v>190</v>
       </c>
       <c r="E563" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F563" s="4">
         <v>95</v>
@@ -18848,7 +18848,7 @@
         <v>8</v>
       </c>
       <c r="E564" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F564" s="4">
         <v>95</v>
@@ -18877,7 +18877,7 @@
         <v>181</v>
       </c>
       <c r="E565" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F565" s="4">
         <v>95</v>
@@ -18906,7 +18906,7 @@
         <v>206</v>
       </c>
       <c r="E566" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F566" s="4">
         <v>95</v>
@@ -18935,7 +18935,7 @@
         <v>41</v>
       </c>
       <c r="E567" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F567" s="4">
         <v>95</v>
@@ -18964,7 +18964,7 @@
         <v>281</v>
       </c>
       <c r="E568" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F568" s="4">
         <v>95</v>
@@ -18993,7 +18993,7 @@
         <v>86</v>
       </c>
       <c r="E569" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F569" s="4">
         <v>93</v>
@@ -19022,7 +19022,7 @@
         <v>245</v>
       </c>
       <c r="E570" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F570" s="4">
         <v>93</v>
@@ -19051,7 +19051,7 @@
         <v>190</v>
       </c>
       <c r="E571" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F571" s="4">
         <v>93</v>
@@ -19080,7 +19080,7 @@
         <v>4</v>
       </c>
       <c r="E572" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F572" s="4">
         <v>93</v>
@@ -19109,7 +19109,7 @@
         <v>86</v>
       </c>
       <c r="E573" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F573" s="4">
         <v>93</v>
@@ -19138,7 +19138,7 @@
         <v>190</v>
       </c>
       <c r="E574" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F574" s="4">
         <v>93</v>
@@ -19167,7 +19167,7 @@
         <v>77</v>
       </c>
       <c r="E575" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F575" s="4">
         <v>93</v>
@@ -19196,7 +19196,7 @@
         <v>284</v>
       </c>
       <c r="E576" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F576" s="4">
         <v>93</v>
@@ -19225,7 +19225,7 @@
         <v>428</v>
       </c>
       <c r="E577" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F577" s="4">
         <v>93</v>
@@ -19254,7 +19254,7 @@
         <v>135</v>
       </c>
       <c r="E578" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F578" s="4">
         <v>93</v>
@@ -19283,7 +19283,7 @@
         <v>287</v>
       </c>
       <c r="E579" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F579" s="4">
         <v>93</v>
@@ -19312,7 +19312,7 @@
         <v>138</v>
       </c>
       <c r="E580" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F580" s="4">
         <v>93</v>
@@ -19341,7 +19341,7 @@
         <v>94</v>
       </c>
       <c r="E581" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F581" s="4">
         <v>93</v>
@@ -19370,7 +19370,7 @@
         <v>137</v>
       </c>
       <c r="E582" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F582" s="4">
         <v>93</v>
@@ -19399,7 +19399,7 @@
         <v>94</v>
       </c>
       <c r="E583" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F583" s="4">
         <v>93</v>
@@ -19428,7 +19428,7 @@
         <v>94</v>
       </c>
       <c r="E584" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F584" s="4">
         <v>93</v>
@@ -19457,7 +19457,7 @@
         <v>92</v>
       </c>
       <c r="E585" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F585" s="4">
         <v>93</v>
@@ -19486,7 +19486,7 @@
         <v>175</v>
       </c>
       <c r="E586" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F586" s="4">
         <v>93</v>
@@ -19515,7 +19515,7 @@
         <v>166</v>
       </c>
       <c r="E587" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F587" s="4">
         <v>93</v>
@@ -19544,7 +19544,7 @@
         <v>329</v>
       </c>
       <c r="E588" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F588" s="4">
         <v>93</v>
@@ -19573,7 +19573,7 @@
         <v>33</v>
       </c>
       <c r="E589" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F589" s="4">
         <v>93</v>
@@ -19602,7 +19602,7 @@
         <v>311</v>
       </c>
       <c r="E590" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F590" s="4">
         <v>93</v>
@@ -19631,7 +19631,7 @@
         <v>94</v>
       </c>
       <c r="E591" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F591" s="4">
         <v>93</v>
@@ -19660,7 +19660,7 @@
         <v>214</v>
       </c>
       <c r="E592" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F592" s="4">
         <v>93</v>
@@ -19921,7 +19921,7 @@
         <v>302</v>
       </c>
       <c r="E601" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F601" s="4">
         <v>92</v>
@@ -19950,7 +19950,7 @@
         <v>216</v>
       </c>
       <c r="E602" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F602" s="4">
         <v>92</v>
@@ -19979,7 +19979,7 @@
         <v>273</v>
       </c>
       <c r="E603" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F603" s="4">
         <v>92</v>
@@ -20008,7 +20008,7 @@
         <v>430</v>
       </c>
       <c r="E604" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F604" s="4">
         <v>92</v>
@@ -20037,7 +20037,7 @@
         <v>305</v>
       </c>
       <c r="E605" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F605" s="4">
         <v>92</v>
@@ -20066,7 +20066,7 @@
         <v>94</v>
       </c>
       <c r="E606" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F606" s="4">
         <v>92</v>
@@ -20095,7 +20095,7 @@
         <v>21</v>
       </c>
       <c r="E607" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F607" s="4">
         <v>92</v>
@@ -20124,7 +20124,7 @@
         <v>21</v>
       </c>
       <c r="E608" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F608" s="4">
         <v>92</v>
@@ -20153,7 +20153,7 @@
         <v>257</v>
       </c>
       <c r="E609" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F609" s="4">
         <v>92</v>
@@ -22850,7 +22850,7 @@
         <v>21</v>
       </c>
       <c r="E702" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F702" s="4">
         <v>99</v>
@@ -22879,7 +22879,7 @@
         <v>166</v>
       </c>
       <c r="E703" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F703" s="4">
         <v>99</v>
@@ -22908,7 +22908,7 @@
         <v>4</v>
       </c>
       <c r="E704" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F704" s="4">
         <v>99</v>
@@ -22937,7 +22937,7 @@
         <v>29</v>
       </c>
       <c r="E705" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F705" s="4">
         <v>99</v>
@@ -22966,7 +22966,7 @@
         <v>25</v>
       </c>
       <c r="E706" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F706" s="4">
         <v>99</v>
@@ -22995,7 +22995,7 @@
         <v>31</v>
       </c>
       <c r="E707" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F707" s="4">
         <v>99</v>
@@ -23024,7 +23024,7 @@
         <v>41</v>
       </c>
       <c r="E708" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F708" s="4">
         <v>99</v>
@@ -23053,7 +23053,7 @@
         <v>33</v>
       </c>
       <c r="E709" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F709" s="4">
         <v>99</v>
@@ -23082,7 +23082,7 @@
         <v>43</v>
       </c>
       <c r="E710" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F710" s="4">
         <v>99</v>
@@ -23111,7 +23111,7 @@
         <v>167</v>
       </c>
       <c r="E711" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F711" s="4">
         <v>99</v>
@@ -23140,7 +23140,7 @@
         <v>169</v>
       </c>
       <c r="E712" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F712" s="4">
         <v>99</v>
@@ -23169,7 +23169,7 @@
         <v>45</v>
       </c>
       <c r="E713" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F713" s="4">
         <v>99</v>
@@ -23198,7 +23198,7 @@
         <v>50</v>
       </c>
       <c r="E714" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F714" s="4">
         <v>99</v>
@@ -23227,7 +23227,7 @@
         <v>47</v>
       </c>
       <c r="E715" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F715" s="4">
         <v>99</v>
@@ -23256,7 +23256,7 @@
         <v>4</v>
       </c>
       <c r="E716" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F716" s="4">
         <v>99</v>
@@ -23285,7 +23285,7 @@
         <v>94</v>
       </c>
       <c r="E717" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F717" s="4">
         <v>99</v>
@@ -23314,7 +23314,7 @@
         <v>162</v>
       </c>
       <c r="E718" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F718" s="4">
         <v>99</v>
@@ -23343,7 +23343,7 @@
         <v>21</v>
       </c>
       <c r="E719" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F719" s="4">
         <v>99</v>
@@ -23372,7 +23372,7 @@
         <v>37</v>
       </c>
       <c r="E720" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F720" s="4">
         <v>99</v>
@@ -23401,7 +23401,7 @@
         <v>55</v>
       </c>
       <c r="E721" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F721" s="4">
         <v>99</v>
@@ -23430,7 +23430,7 @@
         <v>39</v>
       </c>
       <c r="E722" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F722" s="4">
         <v>98</v>
@@ -23459,7 +23459,7 @@
         <v>212</v>
       </c>
       <c r="E723" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F723" s="4">
         <v>98</v>
@@ -23488,7 +23488,7 @@
         <v>71</v>
       </c>
       <c r="E724" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F724" s="4">
         <v>98</v>
@@ -23517,7 +23517,7 @@
         <v>171</v>
       </c>
       <c r="E725" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F725" s="4">
         <v>98</v>
@@ -23546,7 +23546,7 @@
         <v>297</v>
       </c>
       <c r="E726" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F726" s="4">
         <v>98</v>
@@ -23575,7 +23575,7 @@
         <v>164</v>
       </c>
       <c r="E727" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F727" s="4">
         <v>98</v>
@@ -23604,7 +23604,7 @@
         <v>295</v>
       </c>
       <c r="E728" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F728" s="4">
         <v>98</v>
@@ -23633,7 +23633,7 @@
         <v>69</v>
       </c>
       <c r="E729" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F729" s="4">
         <v>98</v>
@@ -23662,7 +23662,7 @@
         <v>73</v>
       </c>
       <c r="E730" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F730" s="4">
         <v>98</v>
@@ -23691,7 +23691,7 @@
         <v>7</v>
       </c>
       <c r="E731" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F731" s="4">
         <v>98</v>
@@ -23720,7 +23720,7 @@
         <v>192</v>
       </c>
       <c r="E732" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F732" s="4">
         <v>98</v>
@@ -23749,7 +23749,7 @@
         <v>69</v>
       </c>
       <c r="E733" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F733" s="4">
         <v>98</v>
@@ -23778,7 +23778,7 @@
         <v>166</v>
       </c>
       <c r="E734" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F734" s="4">
         <v>98</v>
@@ -23807,7 +23807,7 @@
         <v>21</v>
       </c>
       <c r="E735" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F735" s="4">
         <v>96</v>
@@ -23836,7 +23836,7 @@
         <v>185</v>
       </c>
       <c r="E736" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F736" s="4">
         <v>96</v>
@@ -23865,7 +23865,7 @@
         <v>166</v>
       </c>
       <c r="E737" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F737" s="4">
         <v>96</v>
@@ -23894,7 +23894,7 @@
         <v>84</v>
       </c>
       <c r="E738" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F738" s="4">
         <v>96</v>
@@ -23923,7 +23923,7 @@
         <v>77</v>
       </c>
       <c r="E739" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F739" s="4">
         <v>96</v>
@@ -23952,7 +23952,7 @@
         <v>69</v>
       </c>
       <c r="E740" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F740" s="4">
         <v>96</v>
@@ -23981,7 +23981,7 @@
         <v>175</v>
       </c>
       <c r="E741" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F741" s="4">
         <v>96</v>
@@ -24010,7 +24010,7 @@
         <v>57</v>
       </c>
       <c r="E742" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F742" s="4">
         <v>96</v>
@@ -24039,7 +24039,7 @@
         <v>471</v>
       </c>
       <c r="E743" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F743" s="4">
         <v>96</v>
@@ -24068,7 +24068,7 @@
         <v>67</v>
       </c>
       <c r="E744" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F744" s="4">
         <v>96</v>
@@ -24097,7 +24097,7 @@
         <v>204</v>
       </c>
       <c r="E745" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F745" s="4">
         <v>96</v>
@@ -24126,7 +24126,7 @@
         <v>257</v>
       </c>
       <c r="E746" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F746" s="4">
         <v>95</v>
@@ -24155,7 +24155,7 @@
         <v>177</v>
       </c>
       <c r="E747" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F747" s="4">
         <v>95</v>
@@ -24184,7 +24184,7 @@
         <v>49</v>
       </c>
       <c r="E748" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F748" s="4">
         <v>95</v>
@@ -24213,7 +24213,7 @@
         <v>123</v>
       </c>
       <c r="E749" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F749" s="4">
         <v>95</v>
@@ -24242,7 +24242,7 @@
         <v>91</v>
       </c>
       <c r="E750" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F750" s="4">
         <v>95</v>
@@ -24271,7 +24271,7 @@
         <v>210</v>
       </c>
       <c r="E751" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F751" s="4">
         <v>95</v>
@@ -24300,7 +24300,7 @@
         <v>188</v>
       </c>
       <c r="E752" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F752" s="4">
         <v>95</v>
@@ -24329,7 +24329,7 @@
         <v>8</v>
       </c>
       <c r="E753" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F753" s="4">
         <v>95</v>
@@ -24358,7 +24358,7 @@
         <v>94</v>
       </c>
       <c r="E754" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F754" s="4">
         <v>95</v>
@@ -24387,7 +24387,7 @@
         <v>33</v>
       </c>
       <c r="E755" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F755" s="4">
         <v>95</v>
@@ -24416,7 +24416,7 @@
         <v>21</v>
       </c>
       <c r="E756" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F756" s="4">
         <v>95</v>
@@ -24445,7 +24445,7 @@
         <v>289</v>
       </c>
       <c r="E757" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F757" s="4">
         <v>95</v>
@@ -24474,7 +24474,7 @@
         <v>423</v>
       </c>
       <c r="E758" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F758" s="4">
         <v>95</v>
@@ -24503,7 +24503,7 @@
         <v>8</v>
       </c>
       <c r="E759" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F759" s="4">
         <v>95</v>
@@ -24532,7 +24532,7 @@
         <v>111</v>
       </c>
       <c r="E760" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F760" s="4">
         <v>95</v>
@@ -24561,7 +24561,7 @@
         <v>206</v>
       </c>
       <c r="E761" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F761" s="4">
         <v>95</v>
@@ -24590,7 +24590,7 @@
         <v>92</v>
       </c>
       <c r="E762" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F762" s="4">
         <v>95</v>
@@ -24619,7 +24619,7 @@
         <v>33</v>
       </c>
       <c r="E763" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F763" s="4">
         <v>95</v>
@@ -24648,7 +24648,7 @@
         <v>166</v>
       </c>
       <c r="E764" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F764" s="4">
         <v>95</v>
@@ -24677,7 +24677,7 @@
         <v>281</v>
       </c>
       <c r="E765" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F765" s="4">
         <v>95</v>
@@ -24706,7 +24706,7 @@
         <v>190</v>
       </c>
       <c r="E766" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F766" s="4">
         <v>95</v>
@@ -24735,7 +24735,7 @@
         <v>329</v>
       </c>
       <c r="E767" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F767" s="4">
         <v>95</v>
@@ -24764,7 +24764,7 @@
         <v>473</v>
       </c>
       <c r="E768" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F768" s="4">
         <v>95</v>
@@ -24793,7 +24793,7 @@
         <v>212</v>
       </c>
       <c r="E769" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F769" s="4">
         <v>93</v>
@@ -24822,7 +24822,7 @@
         <v>474</v>
       </c>
       <c r="E770" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F770" s="4">
         <v>93</v>
@@ -24851,7 +24851,7 @@
         <v>86</v>
       </c>
       <c r="E771" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F771" s="4">
         <v>93</v>
@@ -24880,7 +24880,7 @@
         <v>181</v>
       </c>
       <c r="E772" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F772" s="4">
         <v>93</v>
@@ -24909,7 +24909,7 @@
         <v>39</v>
       </c>
       <c r="E773" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F773" s="4">
         <v>93</v>
@@ -24938,7 +24938,7 @@
         <v>41</v>
       </c>
       <c r="E774" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F774" s="4">
         <v>93</v>
@@ -24967,7 +24967,7 @@
         <v>245</v>
       </c>
       <c r="E775" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F775" s="4">
         <v>93</v>
@@ -24996,7 +24996,7 @@
         <v>311</v>
       </c>
       <c r="E776" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F776" s="4">
         <v>93</v>
@@ -25025,7 +25025,7 @@
         <v>190</v>
       </c>
       <c r="E777" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F777" s="4">
         <v>93</v>
@@ -25054,7 +25054,7 @@
         <v>190</v>
       </c>
       <c r="E778" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F778" s="4">
         <v>93</v>
@@ -25083,7 +25083,7 @@
         <v>94</v>
       </c>
       <c r="E779" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F779" s="4">
         <v>93</v>
@@ -25112,7 +25112,7 @@
         <v>287</v>
       </c>
       <c r="E780" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F780" s="4">
         <v>93</v>
@@ -25141,7 +25141,7 @@
         <v>137</v>
       </c>
       <c r="E781" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F781" s="4">
         <v>93</v>
@@ -25170,7 +25170,7 @@
         <v>77</v>
       </c>
       <c r="E782" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F782" s="4">
         <v>93</v>
@@ -25199,7 +25199,7 @@
         <v>4</v>
       </c>
       <c r="E783" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F783" s="4">
         <v>93</v>
@@ -25228,7 +25228,7 @@
         <v>190</v>
       </c>
       <c r="E784" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F784" s="4">
         <v>93</v>
@@ -25257,7 +25257,7 @@
         <v>84</v>
       </c>
       <c r="E785" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F785" s="4">
         <v>93</v>
@@ -25286,7 +25286,7 @@
         <v>135</v>
       </c>
       <c r="E786" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F786" s="4">
         <v>93</v>
@@ -25315,7 +25315,7 @@
         <v>138</v>
       </c>
       <c r="E787" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F787" s="4">
         <v>93</v>
@@ -25344,7 +25344,7 @@
         <v>430</v>
       </c>
       <c r="E788" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F788" s="4">
         <v>93</v>
@@ -25373,7 +25373,7 @@
         <v>428</v>
       </c>
       <c r="E789" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F789" s="4">
         <v>93</v>
@@ -25402,7 +25402,7 @@
         <v>86</v>
       </c>
       <c r="E790" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F790" s="4">
         <v>93</v>
@@ -25431,7 +25431,7 @@
         <v>94</v>
       </c>
       <c r="E791" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F791" s="4">
         <v>93</v>
@@ -25460,7 +25460,7 @@
         <v>311</v>
       </c>
       <c r="E792" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F792" s="4">
         <v>93</v>
@@ -25721,7 +25721,7 @@
         <v>69</v>
       </c>
       <c r="E801" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F801" s="4">
         <v>92</v>
@@ -25750,7 +25750,7 @@
         <v>214</v>
       </c>
       <c r="E802" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F802" s="4">
         <v>92</v>
@@ -25779,7 +25779,7 @@
         <v>94</v>
       </c>
       <c r="E803" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F803" s="4">
         <v>92</v>
@@ -25808,7 +25808,7 @@
         <v>229</v>
       </c>
       <c r="E804" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F804" s="4">
         <v>92</v>
@@ -25837,7 +25837,7 @@
         <v>478</v>
       </c>
       <c r="E805" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F805" s="4">
         <v>92</v>
@@ -25866,7 +25866,7 @@
         <v>94</v>
       </c>
       <c r="E806" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F806" s="4">
         <v>92</v>
@@ -25895,7 +25895,7 @@
         <v>302</v>
       </c>
       <c r="E807" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F807" s="4">
         <v>92</v>
@@ -25924,7 +25924,7 @@
         <v>212</v>
       </c>
       <c r="E808" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F808" s="4">
         <v>92</v>
@@ -25953,7 +25953,7 @@
         <v>166</v>
       </c>
       <c r="E809" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F809" s="4">
         <v>92</v>
@@ -28650,7 +28650,7 @@
         <v>21</v>
       </c>
       <c r="E902" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F902" s="4">
         <v>99</v>
@@ -28679,7 +28679,7 @@
         <v>166</v>
       </c>
       <c r="E903" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F903" s="4">
         <v>99</v>
@@ -28708,7 +28708,7 @@
         <v>4</v>
       </c>
       <c r="E904" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F904" s="4">
         <v>99</v>
@@ -28737,7 +28737,7 @@
         <v>29</v>
       </c>
       <c r="E905" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F905" s="4">
         <v>99</v>
@@ -28766,7 +28766,7 @@
         <v>25</v>
       </c>
       <c r="E906" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F906" s="4">
         <v>99</v>
@@ -28795,7 +28795,7 @@
         <v>31</v>
       </c>
       <c r="E907" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F907" s="4">
         <v>99</v>
@@ -28824,7 +28824,7 @@
         <v>41</v>
       </c>
       <c r="E908" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F908" s="4">
         <v>99</v>
@@ -28853,7 +28853,7 @@
         <v>43</v>
       </c>
       <c r="E909" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F909" s="4">
         <v>99</v>
@@ -28882,7 +28882,7 @@
         <v>33</v>
       </c>
       <c r="E910" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F910" s="4">
         <v>99</v>
@@ -28911,7 +28911,7 @@
         <v>167</v>
       </c>
       <c r="E911" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F911" s="4">
         <v>99</v>
@@ -28940,7 +28940,7 @@
         <v>162</v>
       </c>
       <c r="E912" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F912" s="4">
         <v>99</v>
@@ -28969,7 +28969,7 @@
         <v>45</v>
       </c>
       <c r="E913" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F913" s="4">
         <v>99</v>
@@ -28998,7 +28998,7 @@
         <v>47</v>
       </c>
       <c r="E914" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F914" s="4">
         <v>99</v>
@@ -29027,7 +29027,7 @@
         <v>169</v>
       </c>
       <c r="E915" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F915" s="4">
         <v>99</v>
@@ -29056,7 +29056,7 @@
         <v>55</v>
       </c>
       <c r="E916" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F916" s="4">
         <v>99</v>
@@ -29085,7 +29085,7 @@
         <v>50</v>
       </c>
       <c r="E917" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F917" s="4">
         <v>99</v>
@@ -29114,7 +29114,7 @@
         <v>21</v>
       </c>
       <c r="E918" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F918" s="4">
         <v>99</v>
@@ -29143,7 +29143,7 @@
         <v>4</v>
       </c>
       <c r="E919" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F919" s="4">
         <v>99</v>
@@ -29172,7 +29172,7 @@
         <v>94</v>
       </c>
       <c r="E920" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F920" s="4">
         <v>99</v>
@@ -29201,7 +29201,7 @@
         <v>57</v>
       </c>
       <c r="E921" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F921" s="4">
         <v>99</v>
@@ -29230,7 +29230,7 @@
         <v>71</v>
       </c>
       <c r="E922" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F922" s="4">
         <v>98</v>
@@ -29259,7 +29259,7 @@
         <v>37</v>
       </c>
       <c r="E923" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F923" s="4">
         <v>98</v>
@@ -29288,7 +29288,7 @@
         <v>212</v>
       </c>
       <c r="E924" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F924" s="4">
         <v>98</v>
@@ -29317,7 +29317,7 @@
         <v>21</v>
       </c>
       <c r="E925" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F925" s="4">
         <v>98</v>
@@ -29346,7 +29346,7 @@
         <v>192</v>
       </c>
       <c r="E926" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F926" s="4">
         <v>98</v>
@@ -29375,7 +29375,7 @@
         <v>166</v>
       </c>
       <c r="E927" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F927" s="4">
         <v>98</v>
@@ -29404,7 +29404,7 @@
         <v>69</v>
       </c>
       <c r="E928" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F928" s="4">
         <v>98</v>
@@ -29433,7 +29433,7 @@
         <v>171</v>
       </c>
       <c r="E929" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F929" s="4">
         <v>98</v>
@@ -29462,7 +29462,7 @@
         <v>164</v>
       </c>
       <c r="E930" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F930" s="4">
         <v>98</v>
@@ -29491,7 +29491,7 @@
         <v>67</v>
       </c>
       <c r="E931" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F931" s="4">
         <v>98</v>
@@ -29520,7 +29520,7 @@
         <v>297</v>
       </c>
       <c r="E932" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F932" s="4">
         <v>98</v>
@@ -29549,7 +29549,7 @@
         <v>7</v>
       </c>
       <c r="E933" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F933" s="4">
         <v>98</v>
@@ -29578,7 +29578,7 @@
         <v>39</v>
       </c>
       <c r="E934" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F934" s="4">
         <v>98</v>
@@ -29607,7 +29607,7 @@
         <v>73</v>
       </c>
       <c r="E935" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F935" s="4">
         <v>96</v>
@@ -29636,7 +29636,7 @@
         <v>166</v>
       </c>
       <c r="E936" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F936" s="4">
         <v>96</v>
@@ -29665,7 +29665,7 @@
         <v>69</v>
       </c>
       <c r="E937" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F937" s="4">
         <v>96</v>
@@ -29694,7 +29694,7 @@
         <v>185</v>
       </c>
       <c r="E938" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F938" s="4">
         <v>96</v>
@@ -29723,7 +29723,7 @@
         <v>123</v>
       </c>
       <c r="E939" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F939" s="4">
         <v>96</v>
@@ -29752,7 +29752,7 @@
         <v>289</v>
       </c>
       <c r="E940" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F940" s="4">
         <v>96</v>
@@ -29781,7 +29781,7 @@
         <v>529</v>
       </c>
       <c r="E941" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F941" s="4">
         <v>96</v>
@@ -29810,7 +29810,7 @@
         <v>77</v>
       </c>
       <c r="E942" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F942" s="4">
         <v>96</v>
@@ -29839,7 +29839,7 @@
         <v>80</v>
       </c>
       <c r="E943" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F943" s="4">
         <v>96</v>
@@ -29868,7 +29868,7 @@
         <v>175</v>
       </c>
       <c r="E944" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F944" s="4">
         <v>96</v>
@@ -29897,7 +29897,7 @@
         <v>210</v>
       </c>
       <c r="E945" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F945" s="4">
         <v>96</v>
@@ -29926,7 +29926,7 @@
         <v>92</v>
       </c>
       <c r="E946" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F946" s="4">
         <v>95</v>
@@ -29955,7 +29955,7 @@
         <v>84</v>
       </c>
       <c r="E947" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F947" s="4">
         <v>95</v>
@@ -29984,7 +29984,7 @@
         <v>471</v>
       </c>
       <c r="E948" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F948" s="4">
         <v>95</v>
@@ -30013,7 +30013,7 @@
         <v>257</v>
       </c>
       <c r="E949" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F949" s="4">
         <v>95</v>
@@ -30042,7 +30042,7 @@
         <v>423</v>
       </c>
       <c r="E950" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F950" s="4">
         <v>95</v>
@@ -30071,7 +30071,7 @@
         <v>204</v>
       </c>
       <c r="E951" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F951" s="4">
         <v>95</v>
@@ -30100,7 +30100,7 @@
         <v>329</v>
       </c>
       <c r="E952" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F952" s="4">
         <v>95</v>
@@ -30129,7 +30129,7 @@
         <v>91</v>
       </c>
       <c r="E953" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F953" s="4">
         <v>95</v>
@@ -30158,7 +30158,7 @@
         <v>177</v>
       </c>
       <c r="E954" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F954" s="4">
         <v>95</v>
@@ -30187,7 +30187,7 @@
         <v>21</v>
       </c>
       <c r="E955" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F955" s="4">
         <v>95</v>
@@ -30216,7 +30216,7 @@
         <v>188</v>
       </c>
       <c r="E956" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F956" s="4">
         <v>95</v>
@@ -30245,7 +30245,7 @@
         <v>530</v>
       </c>
       <c r="E957" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F957" s="4">
         <v>95</v>
@@ -30274,7 +30274,7 @@
         <v>94</v>
       </c>
       <c r="E958" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F958" s="4">
         <v>95</v>
@@ -30303,7 +30303,7 @@
         <v>49</v>
       </c>
       <c r="E959" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F959" s="4">
         <v>95</v>
@@ -30332,7 +30332,7 @@
         <v>473</v>
       </c>
       <c r="E960" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F960" s="4">
         <v>95</v>
@@ -30361,7 +30361,7 @@
         <v>111</v>
       </c>
       <c r="E961" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F961" s="4">
         <v>95</v>
@@ -30390,7 +30390,7 @@
         <v>311</v>
       </c>
       <c r="E962" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F962" s="4">
         <v>95</v>
@@ -30419,7 +30419,7 @@
         <v>33</v>
       </c>
       <c r="E963" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F963" s="4">
         <v>95</v>
@@ -30448,7 +30448,7 @@
         <v>39</v>
       </c>
       <c r="E964" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F964" s="4">
         <v>95</v>
@@ -30477,7 +30477,7 @@
         <v>311</v>
       </c>
       <c r="E965" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F965" s="4">
         <v>95</v>
@@ -30506,7 +30506,7 @@
         <v>281</v>
       </c>
       <c r="E966" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F966" s="4">
         <v>95</v>
@@ -30535,7 +30535,7 @@
         <v>474</v>
       </c>
       <c r="E967" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F967" s="4">
         <v>95</v>
@@ -30564,7 +30564,7 @@
         <v>190</v>
       </c>
       <c r="E968" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F968" s="4">
         <v>95</v>
@@ -30593,7 +30593,7 @@
         <v>531</v>
       </c>
       <c r="E969" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F969" s="4">
         <v>93</v>
@@ -30622,7 +30622,7 @@
         <v>166</v>
       </c>
       <c r="E970" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F970" s="4">
         <v>93</v>
@@ -30651,7 +30651,7 @@
         <v>206</v>
       </c>
       <c r="E971" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F971" s="4">
         <v>93</v>
@@ -30680,7 +30680,7 @@
         <v>8</v>
       </c>
       <c r="E972" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F972" s="4">
         <v>93</v>
@@ -30709,7 +30709,7 @@
         <v>8</v>
       </c>
       <c r="E973" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F973" s="4">
         <v>93</v>
@@ -30738,7 +30738,7 @@
         <v>94</v>
       </c>
       <c r="E974" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F974" s="4">
         <v>93</v>
@@ -30767,7 +30767,7 @@
         <v>166</v>
       </c>
       <c r="E975" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F975" s="4">
         <v>93</v>
@@ -30796,7 +30796,7 @@
         <v>84</v>
       </c>
       <c r="E976" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F976" s="4">
         <v>93</v>
@@ -30825,7 +30825,7 @@
         <v>33</v>
       </c>
       <c r="E977" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F977" s="4">
         <v>93</v>
@@ -30854,7 +30854,7 @@
         <v>245</v>
       </c>
       <c r="E978" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F978" s="4">
         <v>93</v>
@@ -30883,7 +30883,7 @@
         <v>302</v>
       </c>
       <c r="E979" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F979" s="4">
         <v>93</v>
@@ -30912,7 +30912,7 @@
         <v>428</v>
       </c>
       <c r="E980" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F980" s="4">
         <v>93</v>
@@ -30941,7 +30941,7 @@
         <v>284</v>
       </c>
       <c r="E981" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F981" s="4">
         <v>93</v>
@@ -30970,7 +30970,7 @@
         <v>190</v>
       </c>
       <c r="E982" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F982" s="4">
         <v>93</v>
@@ -30999,7 +30999,7 @@
         <v>137</v>
       </c>
       <c r="E983" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F983" s="4">
         <v>93</v>
@@ -31028,7 +31028,7 @@
         <v>190</v>
       </c>
       <c r="E984" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F984" s="4">
         <v>93</v>
@@ -31057,7 +31057,7 @@
         <v>21</v>
       </c>
       <c r="E985" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F985" s="4">
         <v>93</v>
@@ -31086,7 +31086,7 @@
         <v>181</v>
       </c>
       <c r="E986" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F986" s="4">
         <v>93</v>
@@ -31115,7 +31115,7 @@
         <v>77</v>
       </c>
       <c r="E987" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F987" s="4">
         <v>93</v>
@@ -31144,7 +31144,7 @@
         <v>86</v>
       </c>
       <c r="E988" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F988" s="4">
         <v>93</v>
@@ -31173,7 +31173,7 @@
         <v>135</v>
       </c>
       <c r="E989" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F989" s="4">
         <v>93</v>
@@ -31202,7 +31202,7 @@
         <v>190</v>
       </c>
       <c r="E990" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F990" s="4">
         <v>93</v>
@@ -31231,7 +31231,7 @@
         <v>138</v>
       </c>
       <c r="E991" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F991" s="4">
         <v>93</v>
@@ -31260,7 +31260,7 @@
         <v>71</v>
       </c>
       <c r="E992" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F992" s="4">
         <v>93</v>
@@ -31521,7 +31521,7 @@
         <v>190</v>
       </c>
       <c r="E1001" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1001" s="4">
         <v>92</v>
@@ -31550,7 +31550,7 @@
         <v>287</v>
       </c>
       <c r="E1002" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1002" s="4">
         <v>92</v>
@@ -31579,7 +31579,7 @@
         <v>245</v>
       </c>
       <c r="E1003" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1003" s="4">
         <v>92</v>
@@ -31608,7 +31608,7 @@
         <v>21</v>
       </c>
       <c r="E1004" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1004" s="4">
         <v>92</v>
@@ -31637,7 +31637,7 @@
         <v>94</v>
       </c>
       <c r="E1005" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1005" s="4">
         <v>92</v>
@@ -31666,7 +31666,7 @@
         <v>348</v>
       </c>
       <c r="E1006" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1006" s="4">
         <v>92</v>
@@ -31695,7 +31695,7 @@
         <v>212</v>
       </c>
       <c r="E1007" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1007" s="4">
         <v>92</v>
@@ -31724,7 +31724,7 @@
         <v>94</v>
       </c>
       <c r="E1008" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1008" s="4">
         <v>92</v>
@@ -31753,7 +31753,7 @@
         <v>449</v>
       </c>
       <c r="E1009" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1009" s="4">
         <v>92</v>
@@ -34450,7 +34450,7 @@
         <v>21</v>
       </c>
       <c r="E1102" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1102" s="4">
         <v>99</v>
@@ -34479,7 +34479,7 @@
         <v>166</v>
       </c>
       <c r="E1103" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1103" s="4">
         <v>99</v>
@@ -34508,7 +34508,7 @@
         <v>4</v>
       </c>
       <c r="E1104" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1104" s="4">
         <v>99</v>
@@ -34537,7 +34537,7 @@
         <v>29</v>
       </c>
       <c r="E1105" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1105" s="4">
         <v>99</v>
@@ -34566,7 +34566,7 @@
         <v>31</v>
       </c>
       <c r="E1106" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1106" s="4">
         <v>99</v>
@@ -34595,7 +34595,7 @@
         <v>25</v>
       </c>
       <c r="E1107" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1107" s="4">
         <v>99</v>
@@ -34624,7 +34624,7 @@
         <v>41</v>
       </c>
       <c r="E1108" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1108" s="4">
         <v>99</v>
@@ -34653,7 +34653,7 @@
         <v>33</v>
       </c>
       <c r="E1109" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1109" s="4">
         <v>99</v>
@@ -34682,7 +34682,7 @@
         <v>43</v>
       </c>
       <c r="E1110" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1110" s="4">
         <v>99</v>
@@ -34711,7 +34711,7 @@
         <v>162</v>
       </c>
       <c r="E1111" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1111" s="4">
         <v>99</v>
@@ -34740,7 +34740,7 @@
         <v>45</v>
       </c>
       <c r="E1112" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1112" s="4">
         <v>99</v>
@@ -34769,7 +34769,7 @@
         <v>167</v>
       </c>
       <c r="E1113" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1113" s="4">
         <v>99</v>
@@ -34798,7 +34798,7 @@
         <v>21</v>
       </c>
       <c r="E1114" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1114" s="4">
         <v>99</v>
@@ -34827,7 +34827,7 @@
         <v>50</v>
       </c>
       <c r="E1115" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1115" s="4">
         <v>99</v>
@@ -34856,7 +34856,7 @@
         <v>47</v>
       </c>
       <c r="E1116" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1116" s="4">
         <v>98</v>
@@ -34885,7 +34885,7 @@
         <v>55</v>
       </c>
       <c r="E1117" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1117" s="4">
         <v>98</v>
@@ -34914,7 +34914,7 @@
         <v>169</v>
       </c>
       <c r="E1118" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1118" s="4">
         <v>98</v>
@@ -34943,7 +34943,7 @@
         <v>212</v>
       </c>
       <c r="E1119" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1119" s="4">
         <v>98</v>
@@ -34972,7 +34972,7 @@
         <v>94</v>
       </c>
       <c r="E1120" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1120" s="4">
         <v>98</v>
@@ -35001,7 +35001,7 @@
         <v>171</v>
       </c>
       <c r="E1121" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F1121" s="4">
         <v>98</v>
@@ -35030,7 +35030,7 @@
         <v>71</v>
       </c>
       <c r="E1122" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F1122" s="4">
         <v>98</v>
@@ -35059,7 +35059,7 @@
         <v>37</v>
       </c>
       <c r="E1123" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F1123" s="4">
         <v>96</v>
@@ -35088,7 +35088,7 @@
         <v>297</v>
       </c>
       <c r="E1124" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F1124" s="4">
         <v>96</v>
@@ -35117,7 +35117,7 @@
         <v>4</v>
       </c>
       <c r="E1125" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F1125" s="4">
         <v>96</v>
@@ -35146,7 +35146,7 @@
         <v>164</v>
       </c>
       <c r="E1126" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F1126" s="4">
         <v>96</v>
@@ -35175,7 +35175,7 @@
         <v>166</v>
       </c>
       <c r="E1127" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F1127" s="4">
         <v>96</v>
@@ -35204,7 +35204,7 @@
         <v>69</v>
       </c>
       <c r="E1128" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F1128" s="4">
         <v>96</v>
@@ -35233,7 +35233,7 @@
         <v>21</v>
       </c>
       <c r="E1129" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F1129" s="4">
         <v>96</v>
@@ -35262,7 +35262,7 @@
         <v>166</v>
       </c>
       <c r="E1130" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F1130" s="4">
         <v>96</v>
@@ -35291,7 +35291,7 @@
         <v>67</v>
       </c>
       <c r="E1131" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F1131" s="4">
         <v>96</v>
@@ -35320,7 +35320,7 @@
         <v>192</v>
       </c>
       <c r="E1132" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F1132" s="4">
         <v>96</v>
@@ -35349,7 +35349,7 @@
         <v>185</v>
       </c>
       <c r="E1133" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F1133" s="4">
         <v>96</v>
@@ -35378,7 +35378,7 @@
         <v>57</v>
       </c>
       <c r="E1134" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F1134" s="4">
         <v>96</v>
@@ -35407,7 +35407,7 @@
         <v>77</v>
       </c>
       <c r="E1135" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F1135" s="4">
         <v>96</v>
@@ -35436,7 +35436,7 @@
         <v>59</v>
       </c>
       <c r="E1136" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F1136" s="4">
         <v>94</v>
@@ -35465,7 +35465,7 @@
         <v>289</v>
       </c>
       <c r="E1137" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F1137" s="4">
         <v>94</v>
@@ -35494,7 +35494,7 @@
         <v>84</v>
       </c>
       <c r="E1138" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F1138" s="4">
         <v>94</v>
@@ -35523,7 +35523,7 @@
         <v>92</v>
       </c>
       <c r="E1139" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F1139" s="4">
         <v>94</v>
@@ -35552,7 +35552,7 @@
         <v>69</v>
       </c>
       <c r="E1140" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F1140" s="4">
         <v>94</v>
@@ -35581,7 +35581,7 @@
         <v>123</v>
       </c>
       <c r="E1141" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F1141" s="4">
         <v>94</v>
@@ -35610,7 +35610,7 @@
         <v>39</v>
       </c>
       <c r="E1142" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F1142" s="4">
         <v>94</v>
@@ -35639,7 +35639,7 @@
         <v>7</v>
       </c>
       <c r="E1143" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F1143" s="4">
         <v>94</v>
@@ -35668,7 +35668,7 @@
         <v>73</v>
       </c>
       <c r="E1144" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F1144" s="4">
         <v>94</v>
@@ -35697,7 +35697,7 @@
         <v>210</v>
       </c>
       <c r="E1145" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F1145" s="4">
         <v>94</v>
@@ -35726,7 +35726,7 @@
         <v>173</v>
       </c>
       <c r="E1146" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F1146" s="4">
         <v>93</v>
@@ -35755,7 +35755,7 @@
         <v>91</v>
       </c>
       <c r="E1147" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F1147" s="4">
         <v>93</v>
@@ -35784,7 +35784,7 @@
         <v>69</v>
       </c>
       <c r="E1148" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F1148" s="4">
         <v>93</v>
@@ -35813,7 +35813,7 @@
         <v>175</v>
       </c>
       <c r="E1149" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F1149" s="4">
         <v>93</v>
@@ -35842,7 +35842,7 @@
         <v>471</v>
       </c>
       <c r="E1150" s="4">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F1150" s="4">
         <v>93</v>
@@ -35871,7 +35871,7 @@
         <v>329</v>
       </c>
       <c r="E1151" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F1151" s="4">
         <v>93</v>
@@ -35900,7 +35900,7 @@
         <v>28</v>
       </c>
       <c r="E1152" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F1152" s="4">
         <v>93</v>
@@ -35929,7 +35929,7 @@
         <v>423</v>
       </c>
       <c r="E1153" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F1153" s="4">
         <v>93</v>
@@ -35958,7 +35958,7 @@
         <v>177</v>
       </c>
       <c r="E1154" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F1154" s="4">
         <v>93</v>
@@ -35987,7 +35987,7 @@
         <v>311</v>
       </c>
       <c r="E1155" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F1155" s="4">
         <v>93</v>
@@ -36016,7 +36016,7 @@
         <v>33</v>
       </c>
       <c r="E1156" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F1156" s="4">
         <v>93</v>
@@ -36045,7 +36045,7 @@
         <v>39</v>
       </c>
       <c r="E1157" s="4">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F1157" s="4">
         <v>92</v>
@@ -36074,7 +36074,7 @@
         <v>8</v>
       </c>
       <c r="E1158" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1158" s="4">
         <v>92</v>
@@ -36103,7 +36103,7 @@
         <v>204</v>
       </c>
       <c r="E1159" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1159" s="4">
         <v>92</v>
@@ -36132,7 +36132,7 @@
         <v>539</v>
       </c>
       <c r="E1160" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1160" s="4">
         <v>92</v>
@@ -36161,7 +36161,7 @@
         <v>428</v>
       </c>
       <c r="E1161" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1161" s="4">
         <v>92</v>
@@ -36190,7 +36190,7 @@
         <v>188</v>
       </c>
       <c r="E1162" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1162" s="4">
         <v>92</v>
@@ -36219,7 +36219,7 @@
         <v>311</v>
       </c>
       <c r="E1163" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1163" s="4">
         <v>92</v>
@@ -36248,7 +36248,7 @@
         <v>94</v>
       </c>
       <c r="E1164" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1164" s="4">
         <v>92</v>
@@ -36277,7 +36277,7 @@
         <v>21</v>
       </c>
       <c r="E1165" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1165" s="4">
         <v>92</v>
@@ -36306,7 +36306,7 @@
         <v>49</v>
       </c>
       <c r="E1166" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1166" s="4">
         <v>92</v>
@@ -36335,7 +36335,7 @@
         <v>21</v>
       </c>
       <c r="E1167" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1167" s="4">
         <v>92</v>
@@ -36364,7 +36364,7 @@
         <v>540</v>
       </c>
       <c r="E1168" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1168" s="4">
         <v>92</v>
@@ -36393,7 +36393,7 @@
         <v>473</v>
       </c>
       <c r="E1169" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1169" s="4">
         <v>92</v>
@@ -36422,7 +36422,7 @@
         <v>531</v>
       </c>
       <c r="E1170" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1170" s="4">
         <v>92</v>
@@ -36451,7 +36451,7 @@
         <v>281</v>
       </c>
       <c r="E1171" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1171" s="4">
         <v>92</v>
@@ -36480,7 +36480,7 @@
         <v>33</v>
       </c>
       <c r="E1172" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1172" s="4">
         <v>92</v>
@@ -36509,7 +36509,7 @@
         <v>111</v>
       </c>
       <c r="E1173" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1173" s="4">
         <v>92</v>
@@ -36538,7 +36538,7 @@
         <v>8</v>
       </c>
       <c r="E1174" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1174" s="4">
         <v>90</v>
@@ -36567,7 +36567,7 @@
         <v>190</v>
       </c>
       <c r="E1175" s="4">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F1175" s="4">
         <v>90</v>
